--- a/WADE003-arcticpred-12SP1-taxa-output-130trunc6.xlsx
+++ b/WADE003-arcticpred-12SP1-taxa-output-130trunc6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5bd2331949789710/文档/WADE LAB/Arctic-predator-diet-microbiome/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="547" documentId="13_ncr:1_{D8A47DA8-2D53-4318-9C3F-2F9F4DAF4199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C1AC92B-CC8C-47C7-88C4-3F1506D54584}"/>
+  <xr:revisionPtr revIDLastSave="550" documentId="13_ncr:1_{D8A47DA8-2D53-4318-9C3F-2F9F4DAF4199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{505D250E-A8F0-4D74-ACED-9A9E994DB259}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1426,9 +1426,6 @@
     <t>no 100% matches: &gt;98% Gasterosteus nipponicus, Gasterosteus aculeatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Othr &gt;98% matches: Oncorhynchus gilae is native to New Mexico and Arizona rivers; Oncorhynchus kawamurae is native to Japan; </t>
-  </si>
-  <si>
     <t>LOST GENUS; no 100% matches: &gt;98% Oncorhynchus keta, Oncorhynchus mykiss, Oncorhynchus kisutch, Oncorhynchus clarkii, Oncorhynchus nerka, Oncorhynchus gorbuscha</t>
   </si>
   <si>
@@ -1514,6 +1511,9 @@
   </si>
   <si>
     <t>Other 100% matches: Hippoglossoides platessoides is native to the North Atlantic; Limanda limanda is native to Northern Europe; Hippoglossoides dubius is native to Coastal Japan and Korea; Cleisthenes pinetorum is native to Japan and Taiwan; Pseudopleuronectes americanus is native to the East coast of America (e.g. Labrador sea)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other &gt;98% matches: Oncorhynchus gilae is native to New Mexico and Arizona rivers; Oncorhynchus kawamurae is native to Japan; </t>
   </si>
 </sst>
 </file>
@@ -1620,7 +1620,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1640,6 +1640,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1658,6 +1659,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1949,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J290"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I87" sqref="I87"/>
+    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="A238" sqref="A238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2880,10 +2885,10 @@
         <v>55</v>
       </c>
       <c r="I36" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="J36" s="4" t="s">
         <v>496</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6575,10 +6580,10 @@
         <v>252</v>
       </c>
       <c r="I182" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J182" s="9" t="s">
-        <v>468</v>
+        <v>497</v>
       </c>
     </row>
     <row r="183" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6629,7 +6634,7 @@
         <v>44</v>
       </c>
       <c r="I184" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J184" s="13"/>
     </row>
@@ -6808,7 +6813,7 @@
         <v>103</v>
       </c>
       <c r="I193" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="194" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6870,10 +6875,10 @@
         <v>267</v>
       </c>
       <c r="I197" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J197" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="198" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7002,7 +7007,7 @@
         <v>273</v>
       </c>
       <c r="I203" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="204" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7240,7 +7245,7 @@
         <v>10</v>
       </c>
       <c r="I214" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="215" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7257,7 +7262,7 @@
         <v>11</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="216" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7401,9 +7406,9 @@
         <v>17</v>
       </c>
       <c r="I221" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="J221" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="J221" s="17" t="s">
         <v>445</v>
       </c>
     </row>
@@ -7702,7 +7707,7 @@
         <v>32</v>
       </c>
       <c r="I235" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="236" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7768,7 +7773,7 @@
         <v>143</v>
       </c>
       <c r="I238" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="239" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7820,10 +7825,10 @@
         <v>79</v>
       </c>
       <c r="I240" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="J240" s="4" t="s">
         <v>480</v>
-      </c>
-      <c r="J240" s="4" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="241" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7983,10 +7988,10 @@
         <v>335</v>
       </c>
       <c r="I248" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="J248" s="14" t="s">
         <v>482</v>
-      </c>
-      <c r="J248" s="14" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="249" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8015,7 +8020,7 @@
         <v>63</v>
       </c>
       <c r="I249" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="250" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -8139,7 +8144,7 @@
         <v>67</v>
       </c>
       <c r="I254" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="255" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8182,10 +8187,10 @@
         <v>345</v>
       </c>
       <c r="I256" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="J256" s="15" t="s">
         <v>486</v>
-      </c>
-      <c r="J256" s="15" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="257" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -8398,10 +8403,10 @@
         <v>366</v>
       </c>
       <c r="I265" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="J265" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="J265" s="3" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="266" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8602,10 +8607,10 @@
         <v>382</v>
       </c>
       <c r="I274" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="J274" s="10" t="s">
         <v>490</v>
-      </c>
-      <c r="J274" s="10" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="275" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8628,10 +8633,10 @@
         <v>55</v>
       </c>
       <c r="I275" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="J275" s="3" t="s">
         <v>492</v>
-      </c>
-      <c r="J275" s="3" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="276" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8797,7 +8802,7 @@
         <v>401</v>
       </c>
       <c r="I283" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="284" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -8849,7 +8854,7 @@
         <v>405</v>
       </c>
       <c r="I285" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="286" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -8915,10 +8920,10 @@
         <v>55</v>
       </c>
       <c r="I288" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="J288" s="14" t="s">
         <v>492</v>
-      </c>
-      <c r="J288" s="14" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="289" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
